--- a/biology/Zoologie/Armadillidium_simoni/Armadillidium_simoni.xlsx
+++ b/biology/Zoologie/Armadillidium_simoni/Armadillidium_simoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armadillidium simoni est une espèce de cloportes calcicoles de la famille des Armadillidiidae et endémique des Alpes-Maritimes.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa publication de 1887[1], Adrien Dollfus indique que cette espèce, trouvée dans les environs de Cannes sous les pierres dans les bois de pins, mesure 19 mm de longueur et est large de 9 mm.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa publication de 1887, Adrien Dollfus indique que cette espèce, trouvée dans les environs de Cannes sous les pierres dans les bois de pins, mesure 19 mm de longueur et est large de 9 mm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (20 mars 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (20 mars 2023) :
 Armadillidium simoni pontremolense Verhoeff, 1936
 Armadillidium simoni simoni Dollfus, 1887</t>
         </is>
@@ -574,10 +590,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Armadillidium simoni Dollfus, 1887[2],[1].
-Armadillidium simoni a pour synonyme[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Armadillidium simoni Dollfus, 1887,.
+Armadillidium simoni a pour synonyme :
 Armadillidium pujetanum Verhoeff, 1910</t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(fr + la) A. Dollfus, « Diagnoses d'Espèces Nouvelles de la Tribu des Armadilliens », Bulletin de la Société d'études scientifiques de Paris, Paris, vol. 9, no 2,‎ 1887, p. 89-92 (OCLC 12792270, lire en ligne)</t>
         </is>
